--- a/paramInfo/PH_ferrite_n20/paramInfo.xlsx
+++ b/paramInfo/PH_ferrite_n20/paramInfo.xlsx
@@ -25,16 +25,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>initial_lower</t>
-  </si>
-  <si>
-    <t>initial_upper</t>
-  </si>
-  <si>
-    <t>iteration_lower</t>
-  </si>
-  <si>
-    <t>iteration_upper</t>
+    <t>initial_lowerBound</t>
+  </si>
+  <si>
+    <t>initial_upperBound</t>
+  </si>
+  <si>
+    <t>iteration_lowerBound</t>
+  </si>
+  <si>
+    <t>iteration_upperBound</t>
   </si>
   <si>
     <t>exponent</t>
@@ -96,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -138,31 +144,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,10 +484,10 @@
     <col min="1" max="1" style="7" width="38.71928571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="22.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="20.14785714285714" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -494,16 +503,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -526,7 +535,7 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>100</v>
       </c>
       <c r="E2" s="4">
@@ -535,7 +544,7 @@
       <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -590,7 +599,7 @@
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>3000</v>
       </c>
       <c r="E4" s="4">
@@ -599,7 +608,7 @@
       <c r="F4" s="4">
         <v>3000</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>6000</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -622,7 +631,7 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>270</v>
       </c>
       <c r="E5" s="4">
@@ -631,7 +640,7 @@
       <c r="F5" s="4">
         <v>270</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>470</v>
       </c>
       <c r="H5" s="1" t="s">

--- a/paramInfo/PH_ferrite_n20/paramInfo.xlsx
+++ b/paramInfo/PH_ferrite_n20/paramInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>description</t>
   </si>
@@ -40,10 +40,10 @@
     <t>exponent</t>
   </si>
   <si>
-    <t>paramsFormatted</t>
-  </si>
-  <si>
-    <t>paramsUnit</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
   <si>
     <t>(fitting parameter) initial slip resistance</t>
@@ -58,9 +58,6 @@
     <t>1e0</t>
   </si>
   <si>
-    <t>τ₀</t>
-  </si>
-  <si>
     <t>MPa</t>
   </si>
   <si>
@@ -79,16 +76,10 @@
     <t>h0</t>
   </si>
   <si>
-    <t>h₀</t>
-  </si>
-  <si>
     <t>(fitting parameter) saturation shear stress</t>
   </si>
   <si>
     <t>tausat</t>
-  </si>
-  <si>
-    <t>τₛₐₜ</t>
   </si>
 </sst>
 </file>
@@ -152,16 +143,16 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -551,21 +542,21 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="5">
         <v>0.5</v>
@@ -583,21 +574,21 @@
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <v>3000</v>
@@ -615,21 +606,21 @@
         <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>270</v>
@@ -647,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
